--- a/medicine/Enfance/Les_Orphelins_de_Liverpool/Les_Orphelins_de_Liverpool.xlsx
+++ b/medicine/Enfance/Les_Orphelins_de_Liverpool/Les_Orphelins_de_Liverpool.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Orphelins de Liverpool (The Leaving of Liverpool ; littéralement « Le Départ de Liverpool ») est une mini-série britannico-australienne en deux épisodes de 1h40 réalisée par Michael Jenkins et diffusée entre le 8 juillet 1992 et le 9 juillet 1992 sur ABC TV, puis entre le 15 juillet 1993 et le 16 juillet 1993 sur BBC1.
-En France, les deux épisodes sont diffusés le 8 novembre 1993 sur France 2[1].
-Il s'agit de l'adaptation des faits réels sur les enfants immigrés, le programme gouvernemental britannique ayant pour but d'envoyer des dizaines de milliers d'enfants britanniques des classes laborieuses, pauvres, orphelins, ou abandonnés dans les royaumes du Commonwealth tels que l'Australie, la Nouvelle-Zélande, le Canada et l'Afrique du Sud[1],[2].
+En France, les deux épisodes sont diffusés le 8 novembre 1993 sur France 2.
+Il s'agit de l'adaptation des faits réels sur les enfants immigrés, le programme gouvernemental britannique ayant pour but d'envoyer des dizaines de milliers d'enfants britanniques des classes laborieuses, pauvres, orphelins, ou abandonnés dans les royaumes du Commonwealth tels que l'Australie, la Nouvelle-Zélande, le Canada et l'Afrique du Sud,.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans les années 1950, deux enfants Lily (Christine Tremarco) et Bert (Kevin Jones) se rencontrent à l'orphelinat « Star of the Sea » à Liverpool, en Angleterre, et, sans l’accord de leurs familles, sont transportés dans un camp de travail forcé en Australie…
 </t>
@@ -544,7 +558,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Christine Tremarco : Lily
@@ -591,13 +607,88 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Distribution des rôles
-Le rôle de Lily est attribué à l'actrice anglaise Christine Tremarco par un agent australien qui assistait à une de ses scènes de théâtre[3],[4].
-Tournage
-Le tournage a lieu à Liverpool en Angleterre et, principalement, à Lidcombe et Sydney dans la Nouvelle-Galles du Sud en Australie[5], en 1991[6].
-Musique
-La musique de la mini-série est composée par Peter Best. Le chanteur John Lennon y chante sa chanson Working Class Hero[7].
-Liste des pistes signées Peter Best[8]
+          <t>Distribution des rôles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le rôle de Lily est attribué à l'actrice anglaise Christine Tremarco par un agent australien qui assistait à une de ses scènes de théâtre,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Les_Orphelins_de_Liverpool</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Orphelins_de_Liverpool</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage a lieu à Liverpool en Angleterre et, principalement, à Lidcombe et Sydney dans la Nouvelle-Galles du Sud en Australie, en 1991.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Les_Orphelins_de_Liverpool</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Orphelins_de_Liverpool</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Musique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La musique de la mini-série est composée par Peter Best. Le chanteur John Lennon y chante sa chanson Working Class Hero.
+Liste des pistes signées Peter Best
 Opening Titles
 Running With The Flag
 Proddy Dogs!
@@ -627,8 +718,43 @@
 Lily's Letter/Lily Meets Ellen/Bert &amp; The Queen
 Bert In Gaol
 Final Flag/Main Theme
-Fiche technique
- Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Les_Orphelins_de_Liverpool</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Orphelins_de_Liverpool</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Fiche technique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : The Leaving of Liverpool
 Titre français : Les Orphelins de Liverpool
 Réalisation : Michael Jenkins
@@ -651,79 +777,120 @@
 Dates de première diffusion :
 Australie : 8 juillet 1992 sur ABC TV
 Royaume-Uni : 15 juillet 1993 sur BBC One
-France : 8 novembre 1993 sur France 2[1]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+France : 8 novembre 1993 sur France 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Les_Orphelins_de_Liverpool</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Les_Orphelins_de_Liverpool</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Diffusion</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Orphelins de Liverpool est diffusée en première partie de soirée entre le 8 juillet 1992 et le 9 juillet 1992 sur ABC TV.
-Quant au Royaume-Uni, elle n’est que diffusée un an plus tard, entre le 15 juillet 1993 et le 16 juillet 1993 sur BBC One. L'association britannique Child Migrants Trust ayant mission pour de sauver les enfants immigrés a critiqué la chaîne pour avoir refusé la téléassistance. La British Broadcasting Corporation s'est expliquée qu'il s'agit d'une mini-série, et non un documentaire[9].
-En France, elle est diffusée en une seule soirée le 8 novembre 1993 sur France 2[1], et rediffusés le 9 avril 1997 sur M6[10].
+Quant au Royaume-Uni, elle n’est que diffusée un an plus tard, entre le 15 juillet 1993 et le 16 juillet 1993 sur BBC One. L'association britannique Child Migrants Trust ayant mission pour de sauver les enfants immigrés a critiqué la chaîne pour avoir refusé la téléassistance. La British Broadcasting Corporation s'est expliquée qu'il s'agit d'une mini-série, et non un documentaire.
+En France, elle est diffusée en une seule soirée le 8 novembre 1993 sur France 2, et rediffusés le 9 avril 1997 sur M6.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Les_Orphelins_de_Liverpool</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Les_Orphelins_de_Liverpool</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Récompenses
-Festival du film de New York 1992[11] :
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Festival du film de New York 1992 :
 Médaille d'or de la meilleure mini-série pour Steve Knapman
 Médaille d'or de meilleurs décors pour Marcus North
 Médaille d'argent du meilleur effet sonore pour Stephen J. Hope
-Australian Film Institute Awards 1993[11] :
+Australian Film Institute Awards 1993 :
 Meilleure mini-série pour Steve Knapman
-Meilleur scénario de la mini-série pour John Alsop et Sue Smith
-Nomination
-Australian Film Institute Awards 1993 : Meilleure actrice dans un second rôle ou invitée dans une série dramatique pour Christine Tremarco</t>
+Meilleur scénario de la mini-série pour John Alsop et Sue Smith</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Les_Orphelins_de_Liverpool</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Orphelins_de_Liverpool</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Nomination</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Australian Film Institute Awards 1993 : Meilleure actrice dans un second rôle ou invitée dans une série dramatique pour Christine Tremarco</t>
         </is>
       </c>
     </row>
